--- a/src/main/resources/static/model.xlsx
+++ b/src/main/resources/static/model.xlsx
@@ -53,10 +53,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,16 +75,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -96,15 +150,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,32 +182,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,56 +203,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,43 +226,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,133 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,48 +416,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,6 +449,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -500,17 +511,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -519,10 +519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,133 +531,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,13 +1019,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="3" max="4" width="9.375"/>
     <col min="7" max="7" width="12.625"/>
@@ -1067,9 +1067,6 @@
     <row r="2" spans="5:5">
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="5:5">
-      <c r="E3" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/static/model.xlsx
+++ b/src/main/resources/static/model.xlsx
@@ -53,8 +53,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -68,12 +68,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -81,24 +104,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,39 +136,17 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,29 +158,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -182,14 +167,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,6 +181,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -220,6 +220,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -232,169 +364,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,17 +411,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,9 +431,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,7 +444,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,6 +482,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -519,10 +519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,141 +531,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1022,14 +1028,15 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="3" max="4" width="9.375"/>
+    <col min="5" max="5" width="9" style="1"/>
     <col min="7" max="7" width="12.625"/>
-    <col min="9" max="9" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:10">
@@ -1045,7 +1052,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1057,15 +1064,15 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="1"/>
+      <c r="E2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/model.xlsx
+++ b/src/main/resources/static/model.xlsx
@@ -53,8 +53,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -74,8 +74,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -83,14 +143,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,53 +151,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,39 +165,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,14 +206,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,25 +220,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,157 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,32 +411,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -464,6 +438,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -479,20 +462,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +491,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -519,10 +519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,133 +531,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1027,8 +1027,8 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
